--- a/something.xlsx
+++ b/something.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>215C Lý Thường Kiệt, Phường 15, District 11, Хошимин, Вьетнам</t>
+  </si>
+  <si>
+    <t>26 Федерал Плаза, Нью-Йорк, США</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1747,6 +1753,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
